--- a/src/main/resources/templates/BSNS_CD.xlsx
+++ b/src/main/resources/templates/BSNS_CD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\erndtransfer-template-test\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDA5042-A3AE-4CF4-8EE2-F0925EC399F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED845F59-1CA2-4252-B61F-87412404ECD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40845" yWindow="2790" windowWidth="21600" windowHeight="11295" xr2:uid="{D8C82D92-C15B-4D24-BDE8-F84C75756F43}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8C82D92-C15B-4D24-BDE8-F84C75756F43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="123">
-  <si>
-    <t>no</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="121">
   <si>
     <t>seleYy</t>
   </si>
@@ -285,9 +282,6 @@
   </si>
   <si>
     <t>NR50113</t>
-  </si>
-  <si>
-    <t>번호(Q1)</t>
   </si>
   <si>
     <t>선정년도(Q2)</t>
@@ -816,15 +810,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AC9EB3-5458-41C7-9A1C-C04052CCC0EC}">
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AN6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:41" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -945,136 +976,130 @@
       <c r="AN1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN2" s="5"/>
+    </row>
+    <row r="3" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO2" s="5"/>
-    </row>
-    <row r="3" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>107</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>41</v>
@@ -1104,10 +1129,10 @@
         <v>49</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>51</v>
@@ -1152,34 +1177,34 @@
         <v>64</v>
       </c>
       <c r="AA3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB3" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="AC3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AD3" s="7" t="s">
-        <v>67</v>
+      <c r="AD3" s="6">
+        <v>151446000000</v>
       </c>
       <c r="AE3" s="6">
         <v>151446000000</v>
       </c>
-      <c r="AF3" s="6">
-        <v>151446000000</v>
+      <c r="AF3" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AH3" s="7" t="s">
         <v>68</v>
       </c>
       <c r="AI3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="AK3" s="7" t="s">
         <v>70</v>
@@ -1190,14 +1215,11 @@
       <c r="AM3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AN3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO3" s="7"/>
+      <c r="AN3" s="7"/>
     </row>
-    <row r="4" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>107</v>
+    <row r="4" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>41</v>
@@ -1227,10 +1249,10 @@
         <v>49</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>51</v>
@@ -1275,34 +1297,34 @@
         <v>64</v>
       </c>
       <c r="AA4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB4" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="AC4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AD4" s="7" t="s">
-        <v>67</v>
+      <c r="AD4" s="6">
+        <v>151446000000</v>
       </c>
       <c r="AE4" s="6">
         <v>151446000000</v>
       </c>
-      <c r="AF4" s="6">
-        <v>151446000000</v>
+      <c r="AF4" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="AG4" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AH4" s="7" t="s">
         <v>74</v>
       </c>
       <c r="AI4" s="7" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AJ4" s="7" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="AK4" s="7" t="s">
         <v>70</v>
@@ -1313,14 +1335,11 @@
       <c r="AM4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AN4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO4" s="7"/>
+      <c r="AN4" s="7"/>
     </row>
-    <row r="5" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>107</v>
+    <row r="5" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>41</v>
@@ -1350,10 +1369,10 @@
         <v>49</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>51</v>
@@ -1398,34 +1417,34 @@
         <v>64</v>
       </c>
       <c r="AA5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB5" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="AC5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AD5" s="7" t="s">
-        <v>67</v>
+      <c r="AD5" s="6">
+        <v>151446000000</v>
       </c>
       <c r="AE5" s="6">
         <v>151446000000</v>
       </c>
-      <c r="AF5" s="6">
-        <v>151446000000</v>
+      <c r="AF5" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="AG5" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH5" s="7" t="s">
         <v>76</v>
       </c>
       <c r="AI5" s="7" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ5" s="7" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="AK5" s="7" t="s">
         <v>70</v>
@@ -1436,34 +1455,31 @@
       <c r="AM5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AN5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO5" s="7"/>
+      <c r="AN5" s="7"/>
     </row>
-    <row r="6" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>110</v>
+    <row r="6" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="I6" s="7" t="s">
         <v>48</v>
       </c>
@@ -1471,10 +1487,10 @@
         <v>49</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>51</v>
@@ -1519,34 +1535,34 @@
         <v>64</v>
       </c>
       <c r="AA6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB6" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="AB6" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="AC6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AD6" s="7" t="s">
-        <v>67</v>
+      <c r="AD6" s="6">
+        <v>151446000000</v>
       </c>
       <c r="AE6" s="6">
         <v>151446000000</v>
       </c>
-      <c r="AF6" s="6">
-        <v>151446000000</v>
+      <c r="AF6" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="AG6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH6" s="7" t="s">
         <v>81</v>
       </c>
       <c r="AI6" s="7" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AJ6" s="7" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="AK6" s="7" t="s">
         <v>70</v>
@@ -1557,10 +1573,7 @@
       <c r="AM6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AN6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO6" s="7"/>
+      <c r="AN6" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
